--- a/output/google_maps_data_Transportasi_Sleman.xlsx
+++ b/output/google_maps_data_Transportasi_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0812-2716-1205</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>-7.747288</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.747288</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.361468</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Travel+semua+jurusan/@-7.7472883,110.2172725,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5892784f8aaf:0xdfa7121db70ce8c7!8m2!3d-7.7472883!4d110.3614681!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11g02x00xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Travel+semua+jurusan/@-7.7472883,110.2172725,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5892784f8aaf:0xdfa7121db70ce8c7!8m2!3d-7.7472883!4d110.3614681!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11g02x00xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>0896-0314-5501</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>-7.757203</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.757203</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.370003</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Malsa+Trans+Yogyakarta/@-7.7472883,110.2172725,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59006cd82181:0xca614aa619afb766!8m2!3d-7.7572026!4d110.3700026!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TWjNNdFNqZFJSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11c0vl5k65?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Malsa+Trans+Yogyakarta/@-7.7472883,110.2172725,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59006cd82181:0xca614aa619afb766!8m2!3d-7.7572026!4d110.3700026!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TWjNNdFNqZFJSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11c0vl5k65?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -593,25 +586,24 @@
           <t>0896-2158-5455</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.752601</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.752601</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.44173</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/kumis+transportasi/@-7.7526009,110.2975342,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b0078a8e7d5:0x9ed99d20e700d001!8m2!3d-7.7526009!4d110.4417298!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU42TUhSeGJHWlJFQUXgAQD6AQQIABBD!16s%2Fg%2F11vy0tbng2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/kumis+transportasi/@-7.7526009,110.2975342,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b0078a8e7d5:0x9ed99d20e700d001!8m2!3d-7.7526009!4d110.4417298!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU42TUhSeGJHWlJFQUXgAQD6AQQIABBD!16s%2Fg%2F11vy0tbng2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>(0274) 4539466</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.789066</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.789066</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.336924</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rejeki+Transport/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5807cd23e32b:0x68a24c0908a9f98a!8m2!3d-7.7890656!4d110.3369242!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQtidXNfY29tcGFueZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWGNuQnlTbVpuRUFF4AEA-gEECAAQRg!16s%2Fg%2F11c61l6h_t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rejeki+Transport/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5807cd23e32b:0x68a24c0908a9f98a!8m2!3d-7.7890656!4d110.3369242!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQtidXNfY29tcGFueZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWGNuQnlTbVpuRUFF4AEA-gEECAAQRg!16s%2Fg%2F11c61l6h_t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -679,25 +670,24 @@
           <t>0857-2571-8628</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.764369</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.764369</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.392195</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bangsawan+Transport/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59baceb92b31:0x962197bb62f44950!8m2!3d-7.764369!4d110.3921951!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyY2s1dGRsSlJFQUXgAQD6AQQIABAS!16s%2Fg%2F11g02vv81n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bangsawan+Transport/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59baceb92b31:0x962197bb62f44950!8m2!3d-7.764369!4d110.3921951!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyY2s1dGRsSlJFQUXgAQD6AQQIABAS!16s%2Fg%2F11g02vv81n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -724,25 +714,24 @@
           <t>0811-2653-767</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.697205</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.697205</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.36626</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JASA+TRANSPORTASI+ANTAR+JEMPUT+BANDARA+YIA+-+WISATA+YOGYAKARTA.+(+JOGJA+TRANSPORT+)/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5fd29694e5b1:0x5890a10b680eacfe!8m2!3d-7.697205!4d110.3662601!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y6qkr8kv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JASA+TRANSPORTASI+ANTAR+JEMPUT+BANDARA+YIA+-+WISATA+YOGYAKARTA.+(+JOGJA+TRANSPORT+)/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5fd29694e5b1:0x5890a10b680eacfe!8m2!3d-7.697205!4d110.3662601!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y6qkr8kv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -769,25 +758,24 @@
           <t>0823-1489-6626</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.745904</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.745904</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.362267</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sabila+Shuttle+Jogja/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d847ed740d:0x8e909a43b7696ac1!8m2!3d-7.7459039!4d110.3622673!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QYkdWVFVWWm5FQUXgAQD6AQQIABA9!16s%2Fg%2F11j1tf11bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sabila+Shuttle+Jogja/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d847ed740d:0x8e909a43b7696ac1!8m2!3d-7.7459039!4d110.3622673!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QYkdWVFVWWm5FQUXgAQD6AQQIABA9!16s%2Fg%2F11j1tf11bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -810,25 +798,24 @@
           <t>0811-5735-556</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>-7.7395</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.7395</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.408242</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Detutu+Transportation+Jogja/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a57674164ded7:0x928686485644a340!8m2!3d-7.7394996!4d110.4082418!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ4T0UxTVFYVjNSUkFC4AEA-gEECAAQIw!16s%2Fg%2F11gg75d9lx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Detutu+Transportation+Jogja/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a57674164ded7:0x928686485644a340!8m2!3d-7.7394996!4d110.4082418!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ4T0UxTVFYVjNSUkFC4AEA-gEECAAQIw!16s%2Fg%2F11gg75d9lx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -851,25 +838,24 @@
           <t>0851-0085-6718</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.75702</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.75702</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.395531</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO+Sumber+Alam+Condong+Catur/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59cfa9fd1a4d:0x2b88481e8f454d25!8m2!3d-7.7570204!4d110.3955307!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5rZVMxeVVGQlJFQUXgAQD6AQQIABA3!16s%2Fg%2F1ptwrvgsr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO+Sumber+Alam+Condong+Catur/@-7.7890656,110.1927286,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59cfa9fd1a4d:0x2b88481e8f454d25!8m2!3d-7.7570204!4d110.3955307!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5rZVMxeVVGQlJFQUXgAQD6AQQIABA3!16s%2Fg%2F1ptwrvgsr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -893,22 +879,21 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-7.778299</v>
+      </c>
       <c r="G11" t="n">
-        <v>-7.778299</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.425706</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Hidayahtrans+Sleman+Yogyakarta/@-7.778299,110.2815108,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592a9054f5db:0xc570ee9cbb6d90cc!8m2!3d-7.778299!4d110.4257064!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11ybz7rqfd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -927,25 +912,24 @@
           <t>0878-3934-4372</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.729247</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.729247</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.405725</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja.trans/@-7.778299,110.2815108,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59899a241dc9:0x1928fdf2d6dae34!8m2!3d-7.7292468!4d110.4057252!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5pY3pkaVZXcDNSUkFC4AEA-gEECAAQNg!16s%2Fg%2F11h5dwmt5t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja.trans/@-7.778299,110.2815108,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59899a241dc9:0x1928fdf2d6dae34!8m2!3d-7.7292468!4d110.4057252!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5pY3pkaVZXcDNSUkFC4AEA-gEECAAQNg!16s%2Fg%2F11h5dwmt5t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -968,25 +952,24 @@
           <t>0812-3606-0313</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-7.76245</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.76245</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.362291</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Transportasi/@-7.778299,110.2815108,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59da6634cf9f:0xf390a3f8f494a521!8m2!3d-7.7624499!4d110.3622908!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11gr5zdmpd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Transportasi/@-7.778299,110.2815108,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59da6634cf9f:0xf390a3f8f494a521!8m2!3d-7.7624499!4d110.3622908!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11gr5zdmpd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1009,25 +992,24 @@
           <t>0818-0409-9113</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>-7.718651</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.718651</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.343778</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Morfosa+transport/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a593a67512909:0x6eef53a7cc2221e4!8m2!3d-7.7186511!4d110.3437775!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU01TkRSbFVVbDNFQUXgAQD6AQQIABBH!16s%2Fg%2F11h1v89x24?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Morfosa+transport/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a593a67512909:0x6eef53a7cc2221e4!8m2!3d-7.7186511!4d110.3437775!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU01TkRSbFVVbDNFQUXgAQD6AQQIABBH!16s%2Fg%2F11h1v89x24?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1046,25 +1028,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.721466</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.721466</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.36122</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Halte+Alun-alun+Sleman/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59af8e780461:0x33cbeb8efd822fdd!8m2!3d-7.7214662!4d110.3612199!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJPYjNaMmFtVjNFQUXgAQD6AQQIABAW!16s%2Fg%2F11m9q38fgq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Halte+Alun-alun+Sleman/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59af8e780461:0x33cbeb8efd822fdd!8m2!3d-7.7214662!4d110.3612199!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJPYjNaMmFtVjNFQUXgAQD6AQQIABAW!16s%2Fg%2F11m9q38fgq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1087,25 +1068,24 @@
           <t>(0274) 621876</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>-7.783207</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.783207</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.331692</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Detasemen+Perbekalan+Dan+Angkutan+IV-44-02+Bekangdam+IV%2FDiponegoro/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a587549f08155:0xa3ec26644f528747!8m2!3d-7.783207!4d110.3316919!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F1pzxxbswd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,25 +1108,24 @@
           <t>0831-1306-1016</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.701434</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.701434</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.384135</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JASA+ANGKUT+SLEMAN+SINDEN+RATAN/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f41d09e0a05:0x66f6b2a714e082b2!8m2!3d-7.7014337!4d110.384135!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0Y1hKVFUyVlJFQUXgAQD6AQQIABAv!16s%2Fg%2F11mwjd0pwv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JASA+ANGKUT+SLEMAN+SINDEN+RATAN/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f41d09e0a05:0x66f6b2a714e082b2!8m2!3d-7.7014337!4d110.384135!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0Y1hKVFUyVlJFQUXgAQD6AQQIABAv!16s%2Fg%2F11mwjd0pwv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1165,25 +1144,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>-7.741675</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.741675</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.397858</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudang+Operasional+Sleman+SLM001A/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59004e1e1a8d:0x5a43b43432204171!8m2!3d-7.7416747!4d110.3978582!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vjy11qbs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudang+Operasional+Sleman+SLM001A/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59004e1e1a8d:0x5a43b43432204171!8m2!3d-7.7416747!4d110.3978582!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vjy11qbs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1206,25 +1184,24 @@
           <t>0831-1205-0663</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.781926</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.781926</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.323003</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+Angkut+Godean+sleman+Yogyakarta/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af70093a4bd21:0xb0163030e84dd6e4!8m2!3d-7.781926!4d110.3230034!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h9h8p59s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+Angkut+Godean+sleman+Yogyakarta/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af70093a4bd21:0xb0163030e84dd6e4!8m2!3d-7.781926!4d110.3230034!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h9h8p59s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1247,25 +1224,24 @@
           <t>0813-9277-7937</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>-7.756681</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.756681</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.395851</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Condong+Catur/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59a6c5c395b5:0x68950f60e5778641!8m2!3d-7.7566807!4d110.3958505!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQtidXNfc3RhdGlvbpoBIENoUkRTVWhOTUc5blMwVkpRMEZuU1VSTGQwMDFUeEFC4AEA-gEECDQQRA!16s%2Fg%2F11b6c504sx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Condong+Catur/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59a6c5c395b5:0x68950f60e5778641!8m2!3d-7.7566807!4d110.3958505!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQtidXNfc3RhdGlvbpoBIENoUkRTVWhOTUc5blMwVkpRMEZuU1VSTGQwMDFUeEFC4AEA-gEECDQQRA!16s%2Fg%2F11b6c504sx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1284,25 +1260,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>-7.744334</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.744334</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.394603</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sewa+Bus+Murah+Jogja/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59fbfedd1183:0x9309e786d025020c!8m2!3d-7.7443341!4d110.3946031!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYWnprdFoyZEJSUkFC4AEA-gEFCPwBEEc!16s%2Fg%2F11sms1d2vq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sewa+Bus+Murah+Jogja/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59fbfedd1183:0x9309e786d025020c!8m2!3d-7.7443341!4d110.3946031!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYWnprdFoyZEJSUkFC4AEA-gEFCPwBEEc!16s%2Fg%2F11sms1d2vq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1325,25 +1300,24 @@
           <t>0817-469-492</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.774965</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.774965</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.393465</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bus+Pariwisata+Jogja+-+Bregodotransport+-+PT+Mitra+Persada+Travelindo/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c79ce93595:0x6912dc289a3e29cd!8m2!3d-7.7749647!4d110.3934647!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARp0b3VyaXN0X2luZm9ybWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F1tfvwl0j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bus+Pariwisata+Jogja+-+Bregodotransport+-+PT+Mitra+Persada+Travelindo/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c79ce93595:0x6912dc289a3e29cd!8m2!3d-7.7749647!4d110.3934647!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARp0b3VyaXN0X2luZm9ybWF0aW9uX2NlbnRlcuABAA!16s%2Fg%2F1tfvwl0j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1366,25 +1340,24 @@
           <t>0812-2692-0123</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.73143</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.73143</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.381771</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBU+Transport+Office/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d18ac70097:0x7335b45b62f4013f!8m2!3d-7.7314302!4d110.381771!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11j1f18gbx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBU+Transport+Office/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d18ac70097:0x7335b45b62f4013f!8m2!3d-7.7314302!4d110.381771!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11j1f18gbx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1411,25 +1384,24 @@
           <t>(0274) 623700</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.743608</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.743608</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.362084</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglosemar+Express+Cargo+Yogyakarta/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f63c3b9575:0x84f7596dcfe359c2!8m2!3d-7.7436078!4d110.3620837!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQ10cmF2ZWxfYWdlbmN5mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5mYkZCNmJqUm5SUkFC4AEA-gEFCPwLEEk!16s%2Fg%2F1pzrsjn0x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglosemar+Express+Cargo+Yogyakarta/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f63c3b9575:0x84f7596dcfe359c2!8m2!3d-7.7436078!4d110.3620837!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQ10cmF2ZWxfYWdlbmN5mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5mYkZCNmJqUm5SUkFC4AEA-gEFCPwLEEk!16s%2Fg%2F1pzrsjn0x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1448,25 +1420,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.814792</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.814792</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.313137</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Awak+Transportasi+%26+Tour+and+Travel/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af900597010b5:0xc5f52bae7ad6e530!8m2!3d-7.8147916!4d110.313137!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vs0qkpx8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Awak+Transportasi+%26+Tour+and+Travel/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af900597010b5:0xc5f52bae7ad6e530!8m2!3d-7.8147916!4d110.313137!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vs0qkpx8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1489,25 +1460,24 @@
           <t>0822-9888-3467</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>-7.724482</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.724482</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.404517</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SatuLima+Trans/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59003e873d73:0x446a1f0cee7aee3f!8m2!3d-7.724482!4d110.404517!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11y3b5ht0v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SatuLima+Trans/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59003e873d73:0x446a1f0cee7aee3f!8m2!3d-7.724482!4d110.404517!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11y3b5ht0v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1534,25 +1504,24 @@
           <t>(0274) 868772</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>-7.718311</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.718311</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.352307</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Sleman/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58c9296650e5:0x5fedcc32a6517ded!8m2!3d-7.7183106!4d110.3523066!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARxkZXBhcnRtZW50X29mX3RyYW5zcG9ydGF0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZW5KSVVreEJFQUXgAQD6AQQIABAy!16s%2Fg%2F1pzs4251q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Sleman/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58c9296650e5:0x5fedcc32a6517ded!8m2!3d-7.7183106!4d110.3523066!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARxkZXBhcnRtZW50X29mX3RyYW5zcG9ydGF0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZW5KSVVreEJFQUXgAQD6AQQIABAy!16s%2Fg%2F1pzs4251q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1571,25 +1540,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.734608</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.734608</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.404315</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HK+TRANSPORTINDO/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a596ae3c538b1:0xbc300658e7eec76e!8m2!3d-7.7346079!4d110.4043147!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zTUUxeFJXSm5FQUXgAQD6AQQIABAe!16s%2Fg%2F11dfgmqj79?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/HK+TRANSPORTINDO/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a596ae3c538b1:0xbc300658e7eec76e!8m2!3d-7.7346079!4d110.4043147!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zTUUxeFJXSm5FQUXgAQD6AQQIABAe!16s%2Fg%2F11dfgmqj79?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1612,25 +1580,24 @@
           <t>0858-7877-5656</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.741279</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.741279</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.40518</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekarjati+trans/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590f6d826473:0x27660bfd49c6a598!8m2!3d-7.7412794!4d110.4051804!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11tk81y0yl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekarjati+trans/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590f6d826473:0x27660bfd49c6a598!8m2!3d-7.7412794!4d110.4051804!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11tk81y0yl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1653,25 +1620,24 @@
           <t>0857-7129-4898</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.6</v>
+        <v>-7.781109</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.781109</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.39932</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisma+Joglo/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c253348a8b:0xd8835566e3d0af6c!8m2!3d-7.7811087!4d110.3993199!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARdhaXJwb3J0X3NodXR0bGVfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOSU5VcFVPRWxCRUFF4AEA-gEECCwQLg!16s%2Fg%2F11h9y9nld8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisma+Joglo/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c253348a8b:0xd8835566e3d0af6c!8m2!3d-7.7811087!4d110.3993199!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARdhaXJwb3J0X3NodXR0bGVfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOSU5VcFVPRWxCRUFF4AEA-gEECCwQLg!16s%2Fg%2F11h9y9nld8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1691,22 +1657,21 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.734176</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.734176</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.408635</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TATA+TRANSPORT/@-7.7186511,110.1995819,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b7d1b30951:0x6eb6310bede6afe6!8m2!3d-7.734176!4d110.4086354!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11sv_c8_0r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1725,25 +1690,24 @@
           <t>0813-3333-8651</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.759832</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.759832</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.426122</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/J%26T+JNT+CARGO+STAN+SLEMAN+YOGYAKARTA+SLM035B/@-7.7598319,110.2819265,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a595cac19ef5d:0x49e784929bd6ece8!8m2!3d-7.7598319!4d110.4261221!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZeABAA!16s%2Fg%2F11str9m1zr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1763,22 +1727,21 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.740757</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.740757</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.407063</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/djati+transport/@-7.7598319,110.2819265,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a597f4140da27:0x4b0fd293cd2377d6!8m2!3d-7.740757!4d110.4070633!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11tf0qdmb2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1797,25 +1760,24 @@
           <t>0812-8260-6971</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>-7.75683</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.75683</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.395851</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Damri+Condong+Catur+bandara+yogyakarta+international+airport/@-7.7598319,110.2819265,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a597a7f71f4e1:0x82151a5a67fa84ec!8m2!3d-7.7568303!4d110.3958509!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0Y1hZMmJFUm5FQUXgAQD6AQUIiQEQPA!16s%2Fg%2F11nn1r7vyc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Damri+Condong+Catur+bandara+yogyakarta+international+airport/@-7.7598319,110.2819265,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a597a7f71f4e1:0x82151a5a67fa84ec!8m2!3d-7.7568303!4d110.3958509!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0Y1hZMmJFUm5FQUXgAQD6AQUIiQEQPA!16s%2Fg%2F11nn1r7vyc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1838,25 +1800,24 @@
           <t>0821-3579-3337</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.718765</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.718765</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.409638</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkut+sleman/@-7.7598319,110.2819265,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d3d28628fb:0x98612af801cd9448!8m2!3d-7.7187651!4d110.4096382!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11svfhv5qx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkut+sleman/@-7.7598319,110.2819265,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d3d28628fb:0x98612af801cd9448!8m2!3d-7.7187651!4d110.4096382!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11svfhv5qx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1876,22 +1837,21 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.722274</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.722274</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.361174</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Basecamp+JogjaKita+Sleman/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59bf1a71ae1f:0x3fb0fd0fd4a996e9!8m2!3d-7.7222739!4d110.3611737!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11v19h2xml?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1910,25 +1870,24 @@
           <t>(0274) 868084</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.1</v>
+        <v>-7.7474</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.7474</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.36121</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Jombor/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f19d2c9613:0xafdeff04047faf2!8m2!3d-7.7474!4d110.36121!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQhidXNfc3RvcJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU4weGllWFpuUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11b73wf7zq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Jombor/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f19d2c9613:0xafdeff04047faf2!8m2!3d-7.7474!4d110.36121!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQhidXNfc3RvcJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU4weGllWFpuUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11b73wf7zq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1952,22 +1911,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.736203</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.736203</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.407945</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sewa+Mobil+Jogja+%7C+Kusworo+City+Tour+and+Transport/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5937cc061f2d:0xe1c5b71585066642!8m2!3d-7.7362034!4d110.4079448!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11j3vw8c37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1982,25 +1940,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.7</v>
+        <v>-7.699405</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.699405</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.364741</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Maxim+Sleman+Utara+(basecamp)/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f6b9fdd04a5:0xe3a729935bbf5306!8m2!3d-7.6994051!4d110.364741!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11j8l5s6vv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Maxim+Sleman+Utara+(basecamp)/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f6b9fdd04a5:0xe3a729935bbf5306!8m2!3d-7.6994051!4d110.364741!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11j8l5s6vv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2023,25 +1980,24 @@
           <t>(0274) 888068</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.768725</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.768725</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.38998</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Esl+Express+Agen+Sleman+-+Raya+Pertamina/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b0aef24f5f:0x5c2754433de0740d!8m2!3d-7.7687252!4d110.3899799!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F1q67gt80d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Esl+Express+Agen+Sleman+-+Raya+Pertamina/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b0aef24f5f:0x5c2754433de0740d!8m2!3d-7.7687252!4d110.3899799!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F1q67gt80d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2064,25 +2020,24 @@
           <t>(0274) 387720</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>3.3</v>
+        <v>-7.800661</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.800661</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.325032</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO.+SAN+Cabang+Gamping/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af8017c1c2e8b:0x9f44cefc46c652b3!8m2!3d-7.8006615!4d110.3250319!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFidXNfdGlja2V0X2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMWRrMXBjRWgzRUFF4AEA-gEFCNYBEDI!16s%2Fg%2F11gfh4bbmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO.+SAN+Cabang+Gamping/@-7.7222739,110.2169781,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af8017c1c2e8b:0x9f44cefc46c652b3!8m2!3d-7.8006615!4d110.3250319!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFidXNfdGlja2V0X2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMWRrMXBjRWgzRUFF4AEA-gEFCNYBEDI!16s%2Fg%2F11gfh4bbmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2105,25 +2060,24 @@
           <t>0857-4322-5606</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.711836</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.711836</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.448338</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ricky+Barokah+Transportasi/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b9f1903dc85:0x34827e92ab851606!8m2!3d-7.7118362!4d110.4483378!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQlidXNfZGVwb3SaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndNMk51YWkxUlJSQULgAQD6AQQIABAX!16s%2Fg%2F11sz091xbq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ricky+Barokah+Transportasi/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b9f1903dc85:0x34827e92ab851606!8m2!3d-7.7118362!4d110.4483378!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQlidXNfZGVwb3SaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndNMk51YWkxUlJSQULgAQD6AQQIABAX!16s%2Fg%2F11sz091xbq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2142,25 +2096,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>-7.745342</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.745342</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.388914</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TPB+Teman+Bus+BRI+pasar+kolombo/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a591fab1b5af7:0x4198acca1b2caa45!8m2!3d-7.7453417!4d110.3889144!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qr0pyjzh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TPB+Teman+Bus+BRI+pasar+kolombo/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a591fab1b5af7:0x4198acca1b2caa45!8m2!3d-7.7453417!4d110.3889144!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qr0pyjzh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2179,25 +2132,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.731676</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.731676</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.420032</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MJS+GROUP+TRANS/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59007d60e8ed:0x43d3b30d4adffb98!8m2!3d-7.731676!4d110.420032!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJtZUhCaU1saDNFQUXgAQD6AQQIABAu!16s%2Fg%2F11lz7k266h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MJS+GROUP+TRANS/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59007d60e8ed:0x43d3b30d4adffb98!8m2!3d-7.731676!4d110.420032!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJtZUhCaU1saDNFQUXgAQD6AQQIABAu!16s%2Fg%2F11lz7k266h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2217,22 +2169,21 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-7.723948</v>
+      </c>
       <c r="G45" t="n">
-        <v>-7.723948</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.400249</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ELTRANS+JOGJA/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590019600493:0x2f561237225e3e34!8m2!3d-7.7239477!4d110.4002491!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vqc7nd_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2251,25 +2202,24 @@
           <t>0878-8866-8277</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.751218</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.751218</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.393211</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mujiyanto/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59fd7d878463:0xb6562f9058cdb933!8m2!3d-7.7512184!4d110.3932113!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h2hn6pyx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mujiyanto/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59fd7d878463:0xb6562f9058cdb933!8m2!3d-7.7512184!4d110.3932113!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h2hn6pyx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2292,25 +2242,24 @@
           <t>0813-2887-4691</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.8</v>
+        <v>-7.742272</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.742272</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.408404</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT.ARGOMAJU+KARYA+MANDIRI/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a597140632ae7:0x441a27190b136955!8m2!3d-7.742272!4d110.4084044!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEQcmFpbHJvYWRfY29tcGFueeABAA!16s%2Fg%2F11gxgxb1g7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT.ARGOMAJU+KARYA+MANDIRI/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a597140632ae7:0x441a27190b136955!8m2!3d-7.742272!4d110.4084044!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEQcmFpbHJvYWRfY29tcGFueeABAA!16s%2Fg%2F11gxgxb1g7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2333,25 +2282,24 @@
           <t>0815-4881-7844</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>-7.745907</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.745907</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.40408</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Garasi+Aldo+trans/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a593c76603587:0xa80135f5d5bde75e!8m2!3d-7.7459074!4d110.40408!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5hZW1JdFZWQkJFQUXgAQD6AQQIABA7!16s%2Fg%2F11mvxk_yd_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2370,25 +2318,24 @@
           <t>0878-3943-0067</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>-7.759388</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.759388</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.403786</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkutan+Mas+budi/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b8f2bc225d:0xfbdf28e1692f430c!8m2!3d-7.7593878!4d110.4037858!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU16YjNOTGNWbEJFQUXgAQD6AQQIABBH!16s%2Fg%2F11tt6d_phd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkutan+Mas+budi/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b8f2bc225d:0xfbdf28e1692f430c!8m2!3d-7.7593878!4d110.4037858!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU16YjNOTGNWbEJFQUXgAQD6AQQIABBH!16s%2Fg%2F11tt6d_phd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2411,25 +2358,24 @@
           <t>0812-1952-9990</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.78241</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.78241</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.385236</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Travel+Jogja+Wonosobo+%7C+BPG/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59cea6d1a407:0xbd04483d04f83906!8m2!3d-7.7824102!4d110.3852364!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vTTJORFptdG5SUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11c707rxhc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2444,25 +2390,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.732354</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.732354</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.402003</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja+Explorer+Trip/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a594368c74323:0x749570832e4c9fdb!8m2!3d-7.7323541!4d110.4020033!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TkRoeU5XbDNSUkFC4AEA-gEECAAQEw!16s%2Fg%2F11kj8dqm85?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja+Explorer+Trip/@-7.7118362,110.3041422,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a594368c74323:0x749570832e4c9fdb!8m2!3d-7.7323541!4d110.4020033!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TkRoeU5XbDNSUkFC4AEA-gEECAAQEw!16s%2Fg%2F11kj8dqm85?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2481,25 +2426,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>-7.765052</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.765052</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.377053</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bus+Stop+Trans+Jogja/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a584d67620c01:0x5209a1c09713d3d!8m2!3d-7.7650523!4d110.3770528!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQhidXNfc3RvcJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVU5XWjJZa3AzRUFF4AEA-gEECAAQIw!16s%2Fg%2F11f38v2dr3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bus+Stop+Trans+Jogja/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a584d67620c01:0x5209a1c09713d3d!8m2!3d-7.7650523!4d110.3770528!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQhidXNfc3RvcJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVU5XWjJZa3AzRUFF4AEA-gEECAAQIw!16s%2Fg%2F11f38v2dr3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2526,25 +2470,24 @@
           <t>0857-2987-4816</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.705011</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.705011</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.409404</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SifaTrans/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f48a91c2787:0x86dd7874db8c8eab!8m2!3d-7.7050109!4d110.4094038!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNemNreFRZVzFCUlJBQuABAPoBBAgAEDc!16s%2Fg%2F11p4n0nxnx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SifaTrans/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f48a91c2787:0x86dd7874db8c8eab!8m2!3d-7.7050109!4d110.4094038!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNemNreFRZVzFCUlJBQuABAPoBBAgAEDc!16s%2Fg%2F11p4n0nxnx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2567,25 +2510,24 @@
           <t>(0274) 4362121</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.746552</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.746552</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.36133</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Agen+Bangun+Mandiri+Transportasi/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f18e232775:0x9ea3d7c4aefa87c2!8m2!3d-7.746552!4d110.36133!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgERYnVzX3RpY2tldF9hZ2VuY3ngAQA!16s%2Fg%2F11cs0b2cjr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2605,22 +2547,21 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.734957</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.734957</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.408198</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TRIYOGA+TRANS+JAVA+%7C+ANTAR+JEMPUT+BANDARA+YIA+TARIF+250K*/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5944e04e5541:0xa5dc97695a4b9617!8m2!3d-7.7349575!4d110.4081981!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11tfg5yrmj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2639,25 +2580,24 @@
           <t>0838-4066-3615</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.739409</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.739409</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.395291</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yunfa+Travel/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c8dba2e093:0xa72d1f04923cc7a3!8m2!3d-7.7394089!4d110.3952907!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYmkxeVp6WjNSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11rvlrwwl2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yunfa+Travel/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c8dba2e093:0xa72d1f04923cc7a3!8m2!3d-7.7394089!4d110.3952907!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYmkxeVp6WjNSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11rvlrwwl2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2680,25 +2620,24 @@
           <t>0822-4203-1005</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.742241</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.742241</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.399754</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wawa+transport+%26+citytour/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59ff5ac4868b:0x9a3713311854f0!8m2!3d-7.7422406!4d110.3997536!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJrZVc5SGJsTlJFQUXgAQD6AQQIABAo!16s%2Fg%2F11vlcx186m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wawa+transport+%26+citytour/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59ff5ac4868b:0x9a3713311854f0!8m2!3d-7.7422406!4d110.3997536!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJrZVc5SGJsTlJFQUXgAQD6AQQIABAo!16s%2Fg%2F11vlcx186m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2718,22 +2657,21 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>-7.739242</v>
+      </c>
       <c r="G58" t="n">
-        <v>-7.739242</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.39249</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TPB+Teman+Bus+Terminal+Bangunan/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59e614b96f8b:0xe9d246235c2f2b1b!8m2!3d-7.7392418!4d110.3924903!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11n5h72p97?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2753,22 +2691,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-7.768166</v>
+      </c>
       <c r="G59" t="n">
-        <v>-7.768166</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.410043</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/7+Transport/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a599162f7285f:0x67ea43bd3d3c655c!8m2!3d-7.7681662!4d110.4100433!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F1pty4cbj0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2791,25 +2728,24 @@
           <t>0852-6839-1157</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.8</v>
+        <v>-7.724145</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.724145</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.404265</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PARNA+TRANSPORT+GARAGE/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c7362d4797:0x2c22b6ead52d46e9!8m2!3d-7.7241449!4d110.4042651!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFjYXJfcmVudGFsX2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ2QwdE1VV0YzRUFF4AEA-gEECAAQPg!16s%2Fg%2F11f3_zbyy9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PARNA+TRANSPORT+GARAGE/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c7362d4797:0x2c22b6ead52d46e9!8m2!3d-7.7241449!4d110.4042651!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFjYXJfcmVudGFsX2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ2QwdE1VV0YzRUFF4AEA-gEECAAQPg!16s%2Fg%2F11f3_zbyy9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2828,25 +2764,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>-7.730605</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.730605</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.397497</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TPB+Teman+Bus+Bale+Bebakaran/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59106a42dd87:0xe73305e8a6cef5bb!8m2!3d-7.7306049!4d110.3974968!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11lrwnkqk7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TPB+Teman+Bus+Bale+Bebakaran/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59106a42dd87:0xe73305e8a6cef5bb!8m2!3d-7.7306049!4d110.3974968!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11lrwnkqk7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2869,25 +2804,24 @@
           <t>0878-3423-3888</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-7.736683</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.736683</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.400671</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SNI+bisnis/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c89022df81:0x61d538f944946de6!8m2!3d-7.7366827!4d110.4006705!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11s326w1cj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SNI+bisnis/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c89022df81:0x61d538f944946de6!8m2!3d-7.7366827!4d110.4006705!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11s326w1cj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2910,25 +2844,24 @@
           <t>0851-6164-7557</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.9</v>
+        <v>-7.746869</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.746869</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.354924</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JNT+Cargo+Mlati+Sleman/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59aa24f6dc6d:0x776a2b233f8421e0!8m2!3d-7.7468686!4d110.3549236!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOYWJqZHFMVTlCRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11sxwp45kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JNT+Cargo+Mlati+Sleman/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59aa24f6dc6d:0x776a2b233f8421e0!8m2!3d-7.7468686!4d110.3549236!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOYWJqZHFMVTlCRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11sxwp45kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2951,25 +2884,24 @@
           <t>0811-3572-266</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>2.6</v>
+      </c>
       <c r="F64" t="n">
-        <v>2.6</v>
+        <v>-7.77106</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.77106</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.401808</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JAF+EXPRESS/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a559c686b4993:0x31ae785315e6b3a7!8m2!3d-7.7710602!4d110.4018077!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEQc2hpcHBpbmdfc2VydmljZeABAA!16s%2Fg%2F11j1snl293?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JAF+EXPRESS/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a559c686b4993:0x31ae785315e6b3a7!8m2!3d-7.7710602!4d110.4018077!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEQc2hpcHBpbmdfc2VydmljZeABAA!16s%2Fg%2F11j1snl293?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2988,25 +2920,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>-7.729787</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.729787</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.406948</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya+Langit/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b4999d4f2f:0x73a0d4e45fd8e89e!8m2!3d-7.729787!4d110.4069477!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11k3v039w0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya+Langit/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59b4999d4f2f:0x73a0d4e45fd8e89e!8m2!3d-7.729787!4d110.4069477!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11k3v039w0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3026,22 +2957,21 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-7.718484</v>
+      </c>
       <c r="G66" t="n">
-        <v>-7.718484</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.350811</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SIMPANG+3+PEMDA+SLEMAN/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59818615887d:0x5e1e88edeecf8bdc!8m2!3d-7.7184844!4d110.3508105!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11tj8_h6jk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3057,22 +2987,21 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-7.730603</v>
+      </c>
       <c r="G67" t="n">
-        <v>-7.730603</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.39762</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TPB+Teman+Bus+Palem+Raya+Kaliurang/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a595bfa94e879:0xc013125f5d9d4a3c!8m2!3d-7.7306026!4d110.3976202!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11n5zqnk9b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3095,25 +3024,24 @@
           <t>0851-0792-0009</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.1</v>
+        <v>-7.747</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.747</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.361435</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Agen+Patas+Nusantara/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f19e6cf4d9:0xf45a95b8e1d0950!8m2!3d-7.7470005!4d110.3614351!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFidXNfdGlja2V0X2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSa2FscFFhMlIzRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11b73v65k6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3128,25 +3056,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>-7.742219</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.742219</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.401007</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DURMO+GARAGE/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590019a7fcef:0x2c05d8d8a2db3f59!8m2!3d-7.7422185!4d110.4010065!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RYmt0SFgycFJSUkFC4AEA-gEECAAQJg!16s%2Fg%2F11wjr28jbr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DURMO+GARAGE/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590019a7fcef:0x2c05d8d8a2db3f59!8m2!3d-7.7422185!4d110.4010065!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RYmt0SFgycFJSUkFC4AEA-gEECAAQJg!16s%2Fg%2F11wjr28jbr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3166,22 +3093,21 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>-7.724181</v>
+      </c>
       <c r="G70" t="n">
-        <v>-7.724181</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.401289</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TPB+Teman+Bus+Kantor+Kecamatan/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59504c87507d:0x1e87561f9fcce2c!8m2!3d-7.7241815!4d110.401289!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11lsp9cg5r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3196,25 +3122,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>-7.722071</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.722071</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.402591</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TPB+Teman+Bus+Puskesmas+ngaglik/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592a3497f613:0x82a21e1c63d26a70!8m2!3d-7.7220709!4d110.402591!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qrh_88kb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TPB+Teman+Bus+Puskesmas+ngaglik/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592a3497f613:0x82a21e1c63d26a70!8m2!3d-7.7220709!4d110.402591!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qrh_88kb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3238,22 +3163,21 @@
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-7.7335</v>
+      </c>
       <c r="G72" t="n">
-        <v>-7.7335</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.403363</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ABS+TRANSPORT/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a598c11b35ae9:0x19de92f848fbabf6!8m2!3d-7.7335003!4d110.4033628!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11gszxd4cz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3272,25 +3196,24 @@
           <t>0899-5717-132</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>-7.747515</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.747515</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.414186</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+sopir+dalam+dan+luar+kota+mas+saprol/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59003fb9d38d:0xe1d40da9a46cea21!8m2!3d-7.7475152!4d110.4141856!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARdhaXJwb3J0X3NodXR0bGVfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMk1VbDVUSEJSUlJBQuABAPoBBAgAEBM!16s%2Fg%2F11lynj4p_m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+sopir+dalam+dan+luar+kota+mas+saprol/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59003fb9d38d:0xe1d40da9a46cea21!8m2!3d-7.7475152!4d110.4141856!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARdhaXJwb3J0X3NodXR0bGVfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMk1VbDVUSEJSUlJBQuABAPoBBAgAEBM!16s%2Fg%2F11lynj4p_m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3313,25 +3236,24 @@
           <t>0896-5600-4600</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.728978</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.728978</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.40226</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ambulance+NU+MWC+Ngaglik/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59005fa3f5eb:0x4e8a03b9a3665fcd!8m2!3d-7.7289783!4d110.4022601!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmZEZCVVYzRlJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11wy5rxnt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ambulance+NU+MWC+Ngaglik/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59005fa3f5eb:0x4e8a03b9a3665fcd!8m2!3d-7.7289783!4d110.4022601!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmZEZCVVYzRlJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11wy5rxnt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3354,25 +3276,24 @@
           <t>0822-6156-0233</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F75" t="n">
-        <v>3.9</v>
+        <v>-7.765517</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.765517</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.429715</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Indah+Cargo+Cabang+Sleman/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b006efb2c4f:0x473493ffdeae08!8m2!3d-7.7655167!4d110.4297148!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWRrNWlaSE5uUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11y6_3m381?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Indah+Cargo+Cabang+Sleman/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b006efb2c4f:0x473493ffdeae08!8m2!3d-7.7655167!4d110.4297148!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWRrNWlaSE5uUlJBQuABAPoBBAgAEDI!16s%2Fg%2F11y6_3m381?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3395,25 +3316,24 @@
           <t>0812-2661-3206</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.2</v>
+        <v>-7.752199</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.752199</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.375241</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JNT+CARGO+MLATI+SLEMAN+SLM012A/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af75aa7110c95:0x1670eb573fd66f8d!8m2!3d-7.7521987!4d110.375241!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZeABAA!16s%2Fg%2F11t2qtqqb5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JNT+CARGO+MLATI+SLEMAN+SLM012A/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7af75aa7110c95:0x1670eb573fd66f8d!8m2!3d-7.7521987!4d110.375241!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZeABAA!16s%2Fg%2F11t2qtqqb5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3433,22 +3353,21 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>-7.755761</v>
+      </c>
       <c r="G77" t="n">
-        <v>-7.755761</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.412034</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+angkutan/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a595f389e24c5:0x543a1bfee3a3c189!8m2!3d-7.7557612!4d110.4120337!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11smf3trf_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3467,25 +3386,24 @@
           <t>0823-1311-4369</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.4</v>
+        <v>-7.741213</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.741213</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.391524</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Indah+Cargo+Jogja/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59108b5fd1eb:0x9f5052987f7fbcd3!8m2!3d-7.7412133!4d110.3915244!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZeABAA!16s%2Fg%2F11b6d5kvyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3505,22 +3423,21 @@
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-7.728818</v>
+      </c>
       <c r="G79" t="n">
-        <v>-7.728818</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.395869</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Marina+Bigbike+Yogyakarta/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590e44dae809:0xfc664ed681b7bba2!8m2!3d-7.7288184!4d110.3958687!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEQdHJ1Y2tpbmdfY29tcGFueeABAA!16s%2Fg%2F11k_23vfxf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3536,22 +3453,21 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-7.734027</v>
+      </c>
       <c r="G80" t="n">
-        <v>-7.734027</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.407332</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+angkutan+dan+material+farendra/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a590070a16b8f:0xb6074ba9bd58d515!8m2!3d-7.7340267!4d110.4073317!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11y9p4xzn6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3566,25 +3482,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.5</v>
+        <v>-7.716146</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.716146</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.389404</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jembatan+Lojajar+Waterfall/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592d96654b05:0x794a425eadf3510!8m2!3d-7.7161461!4d110.3894036!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQpyaXZlcl9wb3J0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxYVRWUFoydDNSUkFC4AEA-gEECAAQKw!16s%2Fg%2F11f57b0k5v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3600,22 +3515,21 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-7.729659</v>
+      </c>
       <c r="G82" t="n">
-        <v>-7.729659</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.397942</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/L2H+Transport/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59db013f4f35:0xaf8cba8e95708d6d!8m2!3d-7.7296593!4d110.3979423!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11ss50xgcz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3631,22 +3545,21 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>-7.708212</v>
+      </c>
       <c r="G83" t="n">
-        <v>-7.708212</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.393573</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sekam+padi+dan+jasa+transportasi/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5f269ef73e3f:0x20030128eeae7e56!8m2!3d-7.7082118!4d110.3935733!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11ty5lgv33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3662,22 +3575,21 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.737948</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.737948</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.393434</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TPB+Teman+Bus+PLN+Gardu+Induk+Kentungan/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59bd8f62ac9d:0xa0bfd82bd058715b!8m2!3d-7.7379481!4d110.3934339!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11n5h74sk3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3693,22 +3605,21 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>-7.727925</v>
+      </c>
       <c r="G85" t="n">
-        <v>-7.727925</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.41503</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+angkutan+barang+Jogja/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5900409cb7db:0x47648a15a3275d67!8m2!3d-7.7279255!4d110.4150301!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11whnnhrg0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3724,22 +3635,21 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-7.732308</v>
+      </c>
       <c r="G86" t="n">
-        <v>-7.732308</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.401983</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/JE~Trip+by+Palapa+Jogja/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59890385fc31:0xc586080e177390b0!8m2!3d-7.7323077!4d110.4019825!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11ssk91htm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3762,25 +3672,24 @@
           <t>(0274) 868838</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F87" t="n">
-        <v>3.7</v>
+        <v>-7.746719</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.746719</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.361661</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Safari+Dharma+Raya/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f1a2a555c1:0x1beba877878aa468!8m2!3d-7.7467187!4d110.3616605!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFidXNfdGlja2V0X2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSGRYRTNOa3hCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F1pztww98x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Safari+Dharma+Raya/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a58f1a2a555c1:0x1beba877878aa468!8m2!3d-7.7467187!4d110.3616605!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFidXNfdGlja2V0X2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSGRYRTNOa3hCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F1pztww98x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3799,25 +3708,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>-7.783164</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.783164</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.402442</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ambarukmo+Plaza+2/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59c2a74f4ff9:0x3c59a2566501d026!8m2!3d-7.7831639!4d110.4024415!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11b6_svv89?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3837,22 +3745,21 @@
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-7.73697</v>
+      </c>
       <c r="G89" t="n">
-        <v>-7.73697</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.437042</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/JASA+ANTAR+JEMPUT+ANAK+SEKOLAH+(+MOTOR)AREA+SLEMAN/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5b5fa9749c77:0xaf1cdb8f3287bddb!8m2!3d-7.73697!4d110.437042!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11w4dg89wf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3875,25 +3782,24 @@
           <t>0811-2831-540</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.4</v>
+        <v>-7.719943</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.719943</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.361134</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Pemasaran+DAMRI+Sleman+City+Hall/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a597218346939:0x9974e831360d510d!8m2!3d-7.7199429!4d110.3611344!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARFidXNfdGlja2V0X2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGNuRmZhakYzUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11qjrxm6rz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3912,25 +3818,24 @@
           <t>0896-5377-4788</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>-7.718214</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.718214</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.401172</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JASA+ANGKUTAN+SAMPAH+KEYSHA/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d2bc1d5055:0x21eb31695610b2f!8m2!3d-7.7182137!4d110.4011718!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11mqvt0900?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JASA+ANGKUTAN+SAMPAH+KEYSHA/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a59d2bc1d5055:0x21eb31695610b2f!8m2!3d-7.7182137!4d110.4011718!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11mqvt0900?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3949,25 +3854,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.4</v>
+        <v>-7.784763</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.784763</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.436716</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Maguwo/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a5a039f04ff27:0x2179faf8644976!8m2!3d-7.7847633!4d110.4367161!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQ10cmFpbl9zdGF0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ5YldGeU9YVlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F122918hv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3990,25 +3894,24 @@
           <t>0822-2542-9045</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>-7.713943</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.713943</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.401887</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkut+jakal/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a594bd3bf1545:0x7702bb737952551!8m2!3d-7.7139426!4d110.4018873!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARBzaGlwcGluZ19zZXJ2aWNl4AEA!16s%2Fg%2F11c5_fgd6b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkut+jakal/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a594bd3bf1545:0x7702bb737952551!8m2!3d-7.7139426!4d110.4018873!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SARBzaGlwcGluZ19zZXJ2aWNl4AEA!16s%2Fg%2F11c5_fgd6b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4027,25 +3930,24 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>-7.72715</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.72715</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.41593</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ripky+house/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a596a4138aa9b:0x6fb5de3c7b274e95!8m2!3d-7.7271501!4d110.4159303!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgELcGFya2luZ19sb3TgAQA!16s%2Fg%2F11s5p0_68g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ripky+house/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a596a4138aa9b:0x6fb5de3c7b274e95!8m2!3d-7.7271501!4d110.4159303!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgELcGFya2luZ19sb3TgAQA!16s%2Fg%2F11s5p0_68g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4064,25 +3966,24 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.2</v>
+        <v>-7.722606</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.722606</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.389225</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jembatan+Boyong/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592ff4718921:0xd98441fc5b0539e2!8m2!3d-7.7226058!4d110.3892252!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxNSFppZG01UlJSQULgAQD6AQQIABAg!16s%2Fg%2F11gcx_p168?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4097,25 +3998,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.2</v>
+        <v>-7.722606</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.722606</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.389225</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Boyong/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592ff4718921:0xd98441fc5b0539e2!8m2!3d-7.7226058!4d110.3892252!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxNSFppZG01UlJSQULgAQD6AQQIABAg!16s%2Fg%2F11gcx_p168?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Boyong/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a592ff4718921:0xd98441fc5b0539e2!8m2!3d-7.7226058!4d110.3892252!15sChNUcmFuc3BvcnRhc2kgU2xlbWFuWhUiE3RyYW5zcG9ydGFzaSBzbGVtYW6SAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxNSFppZG01UlJSQULgAQD6AQQIABAg!16s%2Fg%2F11gcx_p168?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4134,25 +4034,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>-7.756079</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.756079</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.408455</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jelajah+Nusa/@-7.7650523,110.2328572,12z/data=!4m10!1m2!2m1!1sTransportasi+Sleman!3m6!1s0x2e7a599c27b8bed7:0x9f7735335d5ff3c0!8m2!3d-7.756079!4d110.408455!15sChNUcmFuc3BvcnRhc2kgU2xlbWFukgENdHJhaW5fc3RhdGlvbuABAA!16s%2Fg%2F1pzslk1k0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
